--- a/Document/4-20mA模拟量校准.xlsx
+++ b/Document/4-20mA模拟量校准.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
   <si>
     <t>模拟量输入</t>
   </si>
@@ -65,11 +65,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,13 +81,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -95,9 +88,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,7 +111,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,38 +134,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,6 +154,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -188,6 +172,30 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -215,14 +223,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="45">
     <fill>
@@ -305,73 +305,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,31 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,73 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,9 +516,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,28 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,22 +598,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:M35"/>
+  <dimension ref="B1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1178,6 +1178,7 @@
     <col min="6" max="6" width="14.1111111111111"/>
     <col min="7" max="7" width="12.8888888888889"/>
     <col min="12" max="13" width="12.8888888888889"/>
+    <col min="18" max="18" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10">
@@ -1684,7 +1685,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:19">
       <c r="C25" s="12" t="s">
         <v>1</v>
       </c>
@@ -1697,8 +1698,20 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="3:10">
+      <c r="L25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" spans="3:19">
       <c r="C26" s="4" t="s">
         <v>13</v>
       </c>
@@ -1723,8 +1736,32 @@
       <c r="J26" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:10">
+      <c r="L26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19">
       <c r="C27" s="8">
         <v>819</v>
       </c>
@@ -1753,8 +1790,36 @@
         <f>G27-H27*I27</f>
         <v>10.4553191489364</v>
       </c>
-    </row>
-    <row r="28" spans="3:10">
+      <c r="L27" s="8">
+        <v>800</v>
+      </c>
+      <c r="M27" s="8">
+        <v>3.93</v>
+      </c>
+      <c r="N27" s="8">
+        <f>(L28-L27)/(M28-M27)</f>
+        <v>202.395577395577</v>
+      </c>
+      <c r="O27" s="8">
+        <f>L27-M27*N27</f>
+        <v>4.58538083538087</v>
+      </c>
+      <c r="P27" s="8">
+        <v>807</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="R27" s="8">
+        <f>(P28-P27)/(Q28-Q27)</f>
+        <v>203.088326127239</v>
+      </c>
+      <c r="S27" s="8">
+        <f>P27-Q27*R27</f>
+        <v>-1.2915379864113</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19">
       <c r="C28" s="8">
         <v>4095</v>
       </c>
@@ -1771,8 +1836,24 @@
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="L28" s="8">
+        <v>4095</v>
+      </c>
+      <c r="M28" s="8">
+        <v>20.21</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8">
+        <v>4095</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>20.17</v>
+      </c>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29" t="s">
         <v>9</v>
       </c>
@@ -1784,14 +1865,26 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="3:6">
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="3:15">
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="3:10">
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="3:19">
       <c r="C31" s="15" t="s">
         <v>10</v>
       </c>
@@ -1804,8 +1897,20 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
-    </row>
-    <row r="32" spans="3:10">
+      <c r="L31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="3:19">
       <c r="C32" s="4" t="s">
         <v>13</v>
       </c>
@@ -1830,8 +1935,32 @@
       <c r="J32" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="3:10">
+      <c r="L32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19">
       <c r="C33" s="8">
         <v>819</v>
       </c>
@@ -1860,8 +1989,36 @@
         <f>G33-H33*I33</f>
         <v>-20.2722772277227</v>
       </c>
-    </row>
-    <row r="34" spans="3:10">
+      <c r="L33" s="8">
+        <v>798</v>
+      </c>
+      <c r="M33" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="N33" s="8">
+        <f>(L34-L33)/(M34-M33)</f>
+        <v>190.028818443804</v>
+      </c>
+      <c r="O33" s="8">
+        <f>L33-M33*N33</f>
+        <v>-19.1239193083574</v>
+      </c>
+      <c r="P33" s="8">
+        <v>790</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>4.26</v>
+      </c>
+      <c r="R33" s="8">
+        <f>(P34-P33)/(Q34-Q33)</f>
+        <v>189.398280802292</v>
+      </c>
+      <c r="S33" s="8">
+        <f>P33-Q33*R33</f>
+        <v>-16.8366762177648</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19">
       <c r="C34" s="8">
         <v>4095</v>
       </c>
@@ -1878,8 +2035,24 @@
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="L34" s="8">
+        <v>4095</v>
+      </c>
+      <c r="M34" s="8">
+        <v>21.65</v>
+      </c>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8">
+        <v>4095</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>21.71</v>
+      </c>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="2:19">
       <c r="B35" t="s">
         <v>9</v>
       </c>
@@ -1891,9 +2064,17 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -1902,8 +2083,12 @@
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="G25:J25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:S25"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="G31:J31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:S31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Document/4-20mA模拟量校准.xlsx
+++ b/Document/4-20mA模拟量校准.xlsx
@@ -65,9 +65,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -77,29 +77,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,21 +96,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,17 +109,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,8 +147,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -186,16 +209,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -208,21 +223,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="45">
     <fill>
@@ -305,19 +305,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,37 +437,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,31 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,67 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +525,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -540,17 +564,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,39 +606,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,16 +631,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,115 +649,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="B1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1177,6 +1177,7 @@
     <col min="5" max="5" width="12.8888888888889"/>
     <col min="6" max="6" width="14.1111111111111"/>
     <col min="7" max="7" width="12.8888888888889"/>
+    <col min="9" max="9" width="12.8888888888889"/>
     <col min="12" max="13" width="12.8888888888889"/>
     <col min="18" max="18" width="12.8888888888889"/>
   </cols>
@@ -1240,27 +1241,27 @@
       </c>
       <c r="L4">
         <f>(E11+I11+E21+I21)/4</f>
-        <v>0.00537755115635212</v>
+        <v>0.00632899200451033</v>
       </c>
       <c r="M4">
         <f>(F11+J11+F21+J21)/4</f>
-        <v>0.375224737605237</v>
+        <v>0.260210190671139</v>
       </c>
     </row>
     <row r="5" spans="3:10">
       <c r="C5" s="8">
-        <v>130</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1.07</v>
+        <v>123</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
       </c>
       <c r="E5" s="8">
         <f>(D6-D5)/(C6-C5)</f>
-        <v>0.00537878787878788</v>
+        <v>0.009375</v>
       </c>
       <c r="F5" s="8">
         <f>D5-C5*E5</f>
-        <v>0.370757575757576</v>
+        <v>-0.153125</v>
       </c>
       <c r="G5" s="8">
         <v>120</v>
@@ -1279,18 +1280,18 @@
     </row>
     <row r="6" spans="3:10">
       <c r="C6" s="8">
-        <v>658</v>
-      </c>
-      <c r="D6" s="8">
-        <v>3.91</v>
+        <v>443</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4</v>
       </c>
       <c r="E6" s="8">
         <f>(D7-D6)/(C7-C6)</f>
-        <v>0.00538359788359788</v>
+        <v>0.00909502262443439</v>
       </c>
       <c r="F6" s="8">
         <f>D6-C6*E6</f>
-        <v>0.367592592592593</v>
+        <v>-0.0290950226244338</v>
       </c>
       <c r="G6" s="8">
         <v>678</v>
@@ -1309,18 +1310,18 @@
     </row>
     <row r="7" spans="3:10">
       <c r="C7" s="8">
-        <v>1414</v>
+        <v>885</v>
       </c>
       <c r="D7" s="8">
-        <v>7.98</v>
+        <v>8.02</v>
       </c>
       <c r="E7" s="8">
         <f>(D8-D7)/(C8-C7)</f>
-        <v>0.00538261997405966</v>
+        <v>0.00912844036697248</v>
       </c>
       <c r="F7" s="8">
         <f>D7-C7*E7</f>
-        <v>0.368975356679636</v>
+        <v>-0.0586697247706436</v>
       </c>
       <c r="G7" s="8">
         <v>1420</v>
@@ -1339,18 +1340,18 @@
     </row>
     <row r="8" spans="3:10">
       <c r="C8" s="8">
-        <v>2185</v>
-      </c>
-      <c r="D8" s="8">
-        <v>12.13</v>
+        <v>1321</v>
+      </c>
+      <c r="D8" s="9">
+        <v>12</v>
       </c>
       <c r="E8" s="8">
         <f>(D9-D8)/(C9-C8)</f>
-        <v>0.00534818941504178</v>
+        <v>0.00917431192660551</v>
       </c>
       <c r="F8" s="8">
         <f>D8-C8*E8</f>
-        <v>0.444206128133706</v>
+        <v>-0.119266055045872</v>
       </c>
       <c r="G8" s="8">
         <v>2168</v>
@@ -1369,18 +1370,18 @@
     </row>
     <row r="9" spans="3:10">
       <c r="C9" s="8">
-        <v>2903</v>
+        <v>1648</v>
       </c>
       <c r="D9" s="9">
-        <v>15.97</v>
+        <v>15</v>
       </c>
       <c r="E9" s="8">
         <f>(D10-D9)/(C10-C9)</f>
-        <v>0.00538656527249683</v>
+        <v>0.0091358024691358</v>
       </c>
       <c r="F9" s="8">
         <f>D9-C9*E9</f>
-        <v>0.332801013941706</v>
+        <v>-0.0558024691358003</v>
       </c>
       <c r="G9" s="8">
         <v>2905</v>
@@ -1399,10 +1400,10 @@
     </row>
     <row r="10" spans="3:10">
       <c r="C10" s="8">
-        <v>3692</v>
+        <v>2215</v>
       </c>
       <c r="D10" s="8">
-        <v>20.22</v>
+        <v>20.18</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1423,11 +1424,11 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8">
         <f t="shared" ref="E11:J11" si="2">AVERAGE(E5:E10)</f>
-        <v>0.00537595208479681</v>
+        <v>0.00918171547742963</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="2"/>
-        <v>0.376866533421043</v>
+        <f>AVERAGE(F5:F10)</f>
+        <v>-0.0831916543153498</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>

--- a/Document/4-20mA模拟量校准.xlsx
+++ b/Document/4-20mA模拟量校准.xlsx
@@ -65,11 +65,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,9 +80,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,56 +124,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -154,27 +132,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,8 +163,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +187,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -305,13 +305,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,13 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,151 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,17 +544,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,35 +601,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,18 +1166,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:S35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="2" width="12.8888888888889"/>
     <col min="5" max="5" width="12.8888888888889"/>
     <col min="6" max="6" width="14.1111111111111"/>
     <col min="7" max="7" width="12.8888888888889"/>
-    <col min="12" max="13" width="12.8888888888889"/>
+    <col min="11" max="13" width="12.8888888888889"/>
     <col min="18" max="18" width="12.8888888888889"/>
   </cols>
   <sheetData>
@@ -1240,11 +1241,11 @@
       </c>
       <c r="L4">
         <f>(E11+I11+E21+I21)/4</f>
-        <v>0.00537755115635212</v>
+        <v>0.00629519333124234</v>
       </c>
       <c r="M4">
         <f>(F11+J11+F21+J21)/4</f>
-        <v>0.375224737605237</v>
+        <v>0.430810264532286</v>
       </c>
     </row>
     <row r="5" spans="3:10">
@@ -1480,7 +1481,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <f>D15/C15</f>
+        <v>0.00844262295081967</v>
+      </c>
+      <c r="B15">
+        <f>1/E15</f>
+        <v>185.148514851485</v>
+      </c>
       <c r="C15" s="8">
         <v>122</v>
       </c>
@@ -1496,21 +1505,41 @@
         <v>0.371069518716578</v>
       </c>
       <c r="G15" s="8">
-        <v>152</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1.18</v>
+        <v>44</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" ref="I15:I19" si="5">(H16-H15)/(G16-G15)</f>
-        <v>0.00540740740740741</v>
+        <v>0.00898203592814371</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ref="J15:J19" si="6">H15-G15*I15</f>
-        <v>0.358074074074074</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10">
+        <v>0.604790419161677</v>
+      </c>
+      <c r="K15">
+        <f>1/I15</f>
+        <v>111.333333333333</v>
+      </c>
+      <c r="L15">
+        <f>G15/H15</f>
+        <v>44</v>
+      </c>
+      <c r="M15">
+        <f>H15/G15</f>
+        <v>0.0227272727272727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <f>D16/C16</f>
+        <v>0.00594436310395315</v>
+      </c>
+      <c r="B16">
+        <f>1/E16</f>
+        <v>186.040609137056</v>
+      </c>
       <c r="C16" s="8">
         <v>683</v>
       </c>
@@ -1526,21 +1555,41 @@
         <v>0.388758526603001</v>
       </c>
       <c r="G16" s="8">
-        <v>692</v>
-      </c>
-      <c r="H16" s="8">
-        <v>4.1</v>
+        <v>378</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="5"/>
-        <v>0.00537012113055182</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" si="6"/>
-        <v>0.383876177658142</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
+        <v>0.563636363636364</v>
+      </c>
+      <c r="K16">
+        <f>1/I16</f>
+        <v>110</v>
+      </c>
+      <c r="L16">
+        <f>G16/H16</f>
+        <v>94.5</v>
+      </c>
+      <c r="M16">
+        <f>H16/G16</f>
+        <v>0.0105820105820106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <f>D17/C17</f>
+        <v>0.00564971751412429</v>
+      </c>
+      <c r="B17">
+        <f>1/E17</f>
+        <v>186.341463414634</v>
+      </c>
       <c r="C17" s="8">
         <v>1416</v>
       </c>
@@ -1556,21 +1605,41 @@
         <v>0.401047120418848</v>
       </c>
       <c r="G17" s="8">
-        <v>1435</v>
-      </c>
-      <c r="H17" s="8">
-        <v>8.09</v>
+        <v>818</v>
+      </c>
+      <c r="H17" s="9">
+        <v>8</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="5"/>
-        <v>0.00536551724137931</v>
+        <v>0.0091304347826087</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="6"/>
-        <v>0.390482758620688</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
+        <v>0.531304347826087</v>
+      </c>
+      <c r="K17">
+        <f>1/I17</f>
+        <v>109.52380952381</v>
+      </c>
+      <c r="L17">
+        <f>G17/H17</f>
+        <v>102.25</v>
+      </c>
+      <c r="M17">
+        <f>H17/G17</f>
+        <v>0.0097799511002445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <f>D18/C18</f>
+        <v>0.00555045871559633</v>
+      </c>
+      <c r="B18">
+        <f>1/E18</f>
+        <v>186.821705426356</v>
+      </c>
       <c r="C18" s="8">
         <v>2180</v>
       </c>
@@ -1586,21 +1655,41 @@
         <v>0.431120331950204</v>
       </c>
       <c r="G18" s="8">
-        <v>2160</v>
+        <v>1255</v>
       </c>
       <c r="H18" s="8">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="5"/>
-        <v>0.00537940379403794</v>
+        <v>0.00894854586129754</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" si="6"/>
-        <v>0.360487804878051</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
+        <v>0.75957494407159</v>
+      </c>
+      <c r="K18">
+        <f>1/I18</f>
+        <v>111.75</v>
+      </c>
+      <c r="L18">
+        <f>G18/H18</f>
+        <v>104.670558798999</v>
+      </c>
+      <c r="M18">
+        <f>H18/G18</f>
+        <v>0.00955378486055777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <f>D19/C19</f>
+        <v>0.00550120564932828</v>
+      </c>
+      <c r="B19">
+        <f>1/E19</f>
+        <v>184.438775510204</v>
+      </c>
       <c r="C19" s="8">
         <v>2903</v>
       </c>
@@ -1616,18 +1705,30 @@
         <v>0.23035961272476</v>
       </c>
       <c r="G19" s="8">
-        <v>2898</v>
+        <v>1702</v>
       </c>
       <c r="H19" s="9">
-        <v>15.95</v>
+        <v>15.99</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="5"/>
-        <v>0.00538670284938942</v>
+        <v>0.00911007025761124</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" si="6"/>
-        <v>0.33933514246946</v>
+        <v>0.484660421545675</v>
+      </c>
+      <c r="K19">
+        <f>1/I19</f>
+        <v>109.768637532134</v>
+      </c>
+      <c r="L19">
+        <f>G19/H19</f>
+        <v>106.441525953721</v>
+      </c>
+      <c r="M19">
+        <f>H19/G19</f>
+        <v>0.00939482961222092</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -1640,10 +1741,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8">
-        <v>3635</v>
+        <v>2129</v>
       </c>
       <c r="H20" s="8">
-        <v>19.92</v>
+        <v>19.88</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1656,7 +1757,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8">
         <f t="shared" ref="E21:J21" si="7">AVERAGE(E15:E20)</f>
-        <v>0.0053834565362935</v>
+        <v>0.00538345653629351</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="7"/>
@@ -1666,11 +1767,11 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8">
         <f t="shared" si="7"/>
-        <v>0.00538183048455318</v>
+        <v>0.00905239918411405</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" si="7"/>
-        <v>0.366451191540083</v>
+        <v>0.588793299248278</v>
       </c>
     </row>
     <row r="24" spans="3:10">
